--- a/__encodeapk/闻秀艳北京通样板 -.xlsx
+++ b/__encodeapk/闻秀艳北京通样板 -.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C66BDA-90CD-584B-8774-CA4E6EB3919C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C50FD29-C6B6-7444-A55A-01C4E1F4CA90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11800" yWindow="460" windowWidth="17000" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="1180" windowWidth="17000" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="83">
   <si>
     <t>姓名</t>
   </si>
@@ -278,6 +278,10 @@
   <si>
     <t>68788878070570583</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">15210596003 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -288,7 +292,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -373,6 +377,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -417,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,6 +513,9 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M93" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="H60" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -917,8 +932,8 @@
       <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="19" t="s">
-        <v>23</v>
+      <c r="P2" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="Q2" s="16" t="s">
         <v>24</v>
@@ -1741,42 +1756,45 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="14">
-        <v>43277</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>34</v>
+      <c r="A54" s="15">
+        <v>43281</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="C54" s="9">
-        <v>1078</v>
+        <v>622.54999999999995</v>
       </c>
       <c r="D54" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>06-26</v>
+        <v>06-30</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F54" s="5">
+        <v>49329.83</v>
+      </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="15">
-        <v>43281</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>35</v>
+      <c r="A55" s="14">
+        <v>43294</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C55" s="9">
-        <v>622.54999999999995</v>
+        <v>1306</v>
       </c>
       <c r="D55" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>06-30</v>
+        <f t="shared" ref="D55" si="3">TEXT(A55,"mm-dd")</f>
+        <v>07-13</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F55" s="5">
-        <v>49329.83</v>
+        <v>50635.83</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1796,9 +1814,7 @@
       <c r="E56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="5">
-        <v>50635.83</v>
-      </c>
+      <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="14">
@@ -1875,9 +1891,6 @@
     <row r="61" spans="1:6">
       <c r="A61" s="10"/>
       <c r="B61" s="2"/>
-      <c r="E61" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="2" t="s">
@@ -2028,10 +2041,11 @@
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="7">
-        <v>43851</v>
-      </c>
-      <c r="B74" s="1">
-        <v>43831</v>
+        <v>44217</v>
+      </c>
+      <c r="B74" s="10" t="str">
+        <f>TEXT(A74,"yyyy-mm")</f>
+        <v>2021-01</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>20</v>
@@ -2085,10 +2099,11 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="7">
-        <v>43879</v>
-      </c>
-      <c r="B75" s="1">
-        <v>43832</v>
+        <v>44245</v>
+      </c>
+      <c r="B75" s="10" t="str">
+        <f>TEXT(A75,"yyyy-mm")</f>
+        <v>2021-02</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>20</v>
@@ -2211,7 +2226,7 @@
         <v>43879</v>
       </c>
       <c r="B80" s="10" t="str">
-        <f t="shared" ref="B80:B90" si="3">TEXT(A80,"yyyy-mm")</f>
+        <f t="shared" ref="B80:B90" si="4">TEXT(A80,"yyyy-mm")</f>
         <v>2020-02</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2269,7 +2284,7 @@
         <v>43906</v>
       </c>
       <c r="B81" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2020-03</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -2327,7 +2342,7 @@
         <v>43937</v>
       </c>
       <c r="B82" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2020-04</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2385,7 +2400,7 @@
         <v>43966</v>
       </c>
       <c r="B83" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2020-05</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -2443,7 +2458,7 @@
         <v>43997</v>
       </c>
       <c r="B84" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2020-06</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -2501,7 +2516,7 @@
         <v>44032</v>
       </c>
       <c r="B85" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2020-07</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2559,7 +2574,7 @@
         <v>44061</v>
       </c>
       <c r="B86" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2020-08</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -2617,7 +2632,7 @@
         <v>44090</v>
       </c>
       <c r="B87" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2020-09</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -2675,7 +2690,7 @@
         <v>44120</v>
       </c>
       <c r="B88" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2020-10</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -2733,7 +2748,7 @@
         <v>44151</v>
       </c>
       <c r="B89" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2020-11</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -2791,7 +2806,7 @@
         <v>44181</v>
       </c>
       <c r="B90" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2020-12</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -2915,7 +2930,7 @@
         <v>43517</v>
       </c>
       <c r="B95" s="10" t="str">
-        <f t="shared" ref="B95:B105" si="4">TEXT(A95,"yyyy-mm")</f>
+        <f t="shared" ref="B95:B105" si="5">TEXT(A95,"yyyy-mm")</f>
         <v>2019-02</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -2973,7 +2988,7 @@
         <v>43545</v>
       </c>
       <c r="B96" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-03</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -3031,7 +3046,7 @@
         <v>43576</v>
       </c>
       <c r="B97" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-04</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -3089,7 +3104,7 @@
         <v>43606</v>
       </c>
       <c r="B98" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-05</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -3147,7 +3162,7 @@
         <v>43637</v>
       </c>
       <c r="B99" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-06</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -3205,7 +3220,7 @@
         <v>43667</v>
       </c>
       <c r="B100" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-07</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -3263,7 +3278,7 @@
         <v>43698</v>
       </c>
       <c r="B101" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-08</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -3321,7 +3336,7 @@
         <v>43729</v>
       </c>
       <c r="B102" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-09</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -3379,7 +3394,7 @@
         <v>43759</v>
       </c>
       <c r="B103" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-10</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -3437,7 +3452,7 @@
         <v>43790</v>
       </c>
       <c r="B104" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-11</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -3495,7 +3510,7 @@
         <v>43820</v>
       </c>
       <c r="B105" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2019-12</v>
       </c>
       <c r="C105" s="2" t="s">

--- a/__encodeapk/闻秀艳北京通样板 -.xlsx
+++ b/__encodeapk/闻秀艳北京通样板 -.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangweixin/Documents/TS_ZFB/git/geshui/Finance-master-local/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C50FD29-C6B6-7444-A55A-01C4E1F4CA90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62B54D4-ADE9-5147-A550-55600C53528F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="1180" windowWidth="17000" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>牡丹</t>
   </si>
   <si>
-    <t xml:space="preserve">15210596003 </t>
-  </si>
-  <si>
     <t>北京市朝阳区望京园603号楼11层1210室</t>
   </si>
   <si>
@@ -281,6 +278,10 @@
   </si>
   <si>
     <t xml:space="preserve">15210596003 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>闻秀艳</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -487,9 +488,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -516,6 +514,9 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H60" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -879,16 +880,16 @@
       <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="26" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
+      <c r="A2" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>19</v>
@@ -917,14 +918,14 @@
       <c r="J2" s="9">
         <v>42861.83</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="22">
         <v>44310</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="23">
         <v>44310</v>
       </c>
-      <c r="M2" s="25" t="s">
-        <v>76</v>
+      <c r="M2" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="N2" s="18" t="s">
         <v>22</v>
@@ -932,25 +933,25 @@
       <c r="O2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="28" t="s">
-        <v>82</v>
+      <c r="P2" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="Q2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="16" t="s">
+      <c r="T2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="V2" s="26">
+      <c r="U2" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" s="25">
         <v>0</v>
       </c>
     </row>
@@ -958,62 +959,62 @@
       <c r="J3" s="9">
         <v>11140</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <v>44311</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="23">
         <v>44311</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="K4" s="22">
+        <v>44312</v>
+      </c>
+      <c r="L4" s="23">
+        <v>44312</v>
+      </c>
+      <c r="M4" s="24" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="K4" s="23">
-        <v>44312</v>
-      </c>
-      <c r="L4" s="24">
-        <v>44312</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="23">
+      <c r="K5" s="22">
         <v>44313</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="23">
         <v>44313</v>
       </c>
-      <c r="M5" s="25" t="s">
-        <v>77</v>
+      <c r="M5" s="24" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>44314</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="23">
         <v>44314</v>
       </c>
-      <c r="M6" s="25" t="s">
-        <v>77</v>
+      <c r="M6" s="24" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -1021,7 +1022,7 @@
         <v>44202</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="9">
         <v>2226</v>
@@ -1042,7 +1043,7 @@
         <v>44230</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="9">
         <v>2226</v>
@@ -1063,7 +1064,7 @@
         <v>44258</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="9">
         <v>2226</v>
@@ -1084,7 +1085,7 @@
         <v>44293</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="9">
         <v>2226</v>
@@ -1107,18 +1108,18 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="6">
         <v>2020</v>
@@ -1130,7 +1131,7 @@
         <v>43844</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="9">
         <v>1818</v>
@@ -1149,7 +1150,7 @@
         <v>43872</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="9">
         <v>1818</v>
@@ -1168,7 +1169,7 @@
         <v>43900</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="9">
         <v>1818</v>
@@ -1187,7 +1188,7 @@
         <v>43930</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="9">
         <v>1818</v>
@@ -1206,7 +1207,7 @@
         <v>43964</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="9">
         <v>1818</v>
@@ -1225,7 +1226,7 @@
         <v>43985</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="9">
         <v>1818</v>
@@ -1244,7 +1245,7 @@
         <v>44012</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="9">
         <v>1147.8699999999999</v>
@@ -1266,7 +1267,7 @@
         <v>44015</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="9">
         <v>1818</v>
@@ -1288,7 +1289,7 @@
         <v>44053</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="9">
         <v>2226</v>
@@ -1306,7 +1307,7 @@
         <v>44082</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="9">
         <v>2226</v>
@@ -1324,7 +1325,7 @@
         <v>44114</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="9">
         <v>2226</v>
@@ -1342,7 +1343,7 @@
         <v>44144</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="9">
         <v>2226</v>
@@ -1360,7 +1361,7 @@
         <v>44151</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="9">
         <v>97712.77</v>
@@ -1378,7 +1379,7 @@
         <v>44174</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="9">
         <v>2226</v>
@@ -1393,7 +1394,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
         <v>2019</v>
@@ -1404,7 +1405,7 @@
         <v>43476</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="9">
         <v>1306</v>
@@ -1422,7 +1423,7 @@
         <v>43509</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="9">
         <v>1306</v>
@@ -1440,7 +1441,7 @@
         <v>43536</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="9">
         <v>1306</v>
@@ -1458,7 +1459,7 @@
         <v>43565</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="9">
         <v>1306</v>
@@ -1476,7 +1477,7 @@
         <v>43593</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="9">
         <v>1306</v>
@@ -1494,7 +1495,7 @@
         <v>43628</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="9">
         <v>1306</v>
@@ -1512,7 +1513,7 @@
         <v>43646</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="9">
         <v>853.07</v>
@@ -1533,7 +1534,7 @@
         <v>43656</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="9">
         <v>1306</v>
@@ -1554,7 +1555,7 @@
         <v>43689</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="9">
         <v>1818</v>
@@ -1572,7 +1573,7 @@
         <v>43718</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="9">
         <v>1818</v>
@@ -1590,7 +1591,7 @@
         <v>43749</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="9">
         <v>1818</v>
@@ -1608,7 +1609,7 @@
         <v>43780</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43" s="9">
         <v>1818</v>
@@ -1626,7 +1627,7 @@
         <v>43810</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" s="9">
         <v>1818</v>
@@ -1641,7 +1642,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" s="2">
         <v>2018</v>
@@ -1652,7 +1653,7 @@
         <v>43105</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="9">
         <v>1078</v>
@@ -1670,7 +1671,7 @@
         <v>43139</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C49" s="9">
         <v>1078</v>
@@ -1688,7 +1689,7 @@
         <v>43168</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" s="9">
         <v>1078</v>
@@ -1706,7 +1707,7 @@
         <v>43198</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C51" s="9">
         <v>1078</v>
@@ -1724,7 +1725,7 @@
         <v>43235</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C52" s="9">
         <v>1078</v>
@@ -1742,7 +1743,7 @@
         <v>43264</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" s="9">
         <v>1078</v>
@@ -1760,7 +1761,7 @@
         <v>43281</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54" s="9">
         <v>622.54999999999995</v>
@@ -1781,7 +1782,7 @@
         <v>43294</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C55" s="9">
         <v>1306</v>
@@ -1802,7 +1803,7 @@
         <v>43325</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C56" s="9">
         <v>1306</v>
@@ -1821,7 +1822,7 @@
         <v>43354</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C57" s="9">
         <v>1306</v>
@@ -1839,7 +1840,7 @@
         <v>43383</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C58" s="9">
         <v>1306</v>
@@ -1857,7 +1858,7 @@
         <v>43413</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59" s="9">
         <v>1306</v>
@@ -1875,7 +1876,7 @@
         <v>43445</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60" s="9">
         <v>1306</v>
@@ -1894,60 +1895,60 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="D68" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="F68" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="K68" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="M68" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="C69" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="D69" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="E69" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F69" s="6">
         <v>3231123</v>
@@ -1956,19 +1957,19 @@
         <v>20</v>
       </c>
       <c r="H69" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K69" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="L69" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M69" s="2">
         <v>9276</v>
@@ -1976,67 +1977,67 @@
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="J72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N72" s="1" t="s">
+      <c r="O72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="P72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P72" s="1" t="s">
+      <c r="Q72" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q72" s="1" t="s">
+      <c r="R72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="R72" s="1" t="s">
+      <c r="S72" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="T72" s="1"/>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -2051,7 +2052,7 @@
         <v>20</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E74" s="2">
         <v>9276</v>
@@ -2062,7 +2063,7 @@
       <c r="G74" s="2">
         <v>742.08</v>
       </c>
-      <c r="H74" s="20">
+      <c r="H74" s="19">
         <v>9276</v>
       </c>
       <c r="I74" s="10">
@@ -2071,7 +2072,7 @@
       <c r="J74" s="2">
         <v>18.55</v>
       </c>
-      <c r="K74" s="20">
+      <c r="K74" s="19">
         <v>9276</v>
       </c>
       <c r="L74" s="10">
@@ -2080,20 +2081,20 @@
       <c r="M74" s="2">
         <v>0</v>
       </c>
-      <c r="N74" s="20"/>
+      <c r="N74" s="19"/>
       <c r="O74" s="10">
         <v>0</v>
       </c>
       <c r="P74" s="2">
         <v>0</v>
       </c>
-      <c r="Q74" s="21">
+      <c r="Q74" s="20">
         <v>9276</v>
       </c>
       <c r="R74" s="10">
         <v>909.05</v>
       </c>
-      <c r="S74" s="22">
+      <c r="S74" s="21">
         <v>188.52</v>
       </c>
     </row>
@@ -2109,7 +2110,7 @@
         <v>20</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E75" s="2">
         <v>9276</v>
@@ -2120,7 +2121,7 @@
       <c r="G75" s="2">
         <v>742.08</v>
       </c>
-      <c r="H75" s="20">
+      <c r="H75" s="19">
         <v>9276</v>
       </c>
       <c r="I75" s="10">
@@ -2129,7 +2130,7 @@
       <c r="J75" s="2">
         <v>18.55</v>
       </c>
-      <c r="K75" s="20">
+      <c r="K75" s="19">
         <v>9276</v>
       </c>
       <c r="L75" s="10">
@@ -2138,26 +2139,26 @@
       <c r="M75" s="2">
         <v>0</v>
       </c>
-      <c r="N75" s="20"/>
+      <c r="N75" s="19"/>
       <c r="O75" s="10">
         <v>0</v>
       </c>
       <c r="P75" s="2">
         <v>0</v>
       </c>
-      <c r="Q75" s="21">
+      <c r="Q75" s="20">
         <v>9276</v>
       </c>
       <c r="R75" s="10">
         <v>909.05</v>
       </c>
-      <c r="S75" s="22">
+      <c r="S75" s="21">
         <v>188.52</v>
       </c>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B78" s="6">
         <v>2020</v>
@@ -2175,7 +2176,7 @@
         <v>20</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E79" s="2">
         <v>9276</v>
@@ -2186,7 +2187,7 @@
       <c r="G79" s="2">
         <v>742.08</v>
       </c>
-      <c r="H79" s="20">
+      <c r="H79" s="19">
         <v>9276</v>
       </c>
       <c r="I79" s="10">
@@ -2195,7 +2196,7 @@
       <c r="J79" s="2">
         <v>18.55</v>
       </c>
-      <c r="K79" s="20">
+      <c r="K79" s="19">
         <v>9276</v>
       </c>
       <c r="L79" s="10">
@@ -2204,20 +2205,20 @@
       <c r="M79" s="2">
         <v>0</v>
       </c>
-      <c r="N79" s="20"/>
+      <c r="N79" s="19"/>
       <c r="O79" s="10">
         <v>0</v>
       </c>
       <c r="P79" s="2">
         <v>0</v>
       </c>
-      <c r="Q79" s="21">
+      <c r="Q79" s="20">
         <v>9276</v>
       </c>
       <c r="R79" s="10">
         <v>909.05</v>
       </c>
-      <c r="S79" s="22">
+      <c r="S79" s="21">
         <v>188.52</v>
       </c>
     </row>
@@ -2233,7 +2234,7 @@
         <v>20</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E80" s="2">
         <v>9276</v>
@@ -2244,7 +2245,7 @@
       <c r="G80" s="2">
         <v>742.08</v>
       </c>
-      <c r="H80" s="20">
+      <c r="H80" s="19">
         <v>9276</v>
       </c>
       <c r="I80" s="10">
@@ -2253,7 +2254,7 @@
       <c r="J80" s="2">
         <v>18.55</v>
       </c>
-      <c r="K80" s="20">
+      <c r="K80" s="19">
         <v>9276</v>
       </c>
       <c r="L80" s="10">
@@ -2262,20 +2263,20 @@
       <c r="M80" s="2">
         <v>0</v>
       </c>
-      <c r="N80" s="20"/>
+      <c r="N80" s="19"/>
       <c r="O80" s="10">
         <v>0</v>
       </c>
       <c r="P80" s="2">
         <v>0</v>
       </c>
-      <c r="Q80" s="21">
+      <c r="Q80" s="20">
         <v>9276</v>
       </c>
       <c r="R80" s="10">
         <v>909.05</v>
       </c>
-      <c r="S80" s="22">
+      <c r="S80" s="21">
         <v>188.52</v>
       </c>
     </row>
@@ -2291,7 +2292,7 @@
         <v>20</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E81" s="2">
         <v>9276</v>
@@ -2302,7 +2303,7 @@
       <c r="G81" s="2">
         <v>742.08</v>
       </c>
-      <c r="H81" s="20">
+      <c r="H81" s="19">
         <v>9276</v>
       </c>
       <c r="I81" s="10">
@@ -2311,7 +2312,7 @@
       <c r="J81" s="2">
         <v>18.55</v>
       </c>
-      <c r="K81" s="20">
+      <c r="K81" s="19">
         <v>9276</v>
       </c>
       <c r="L81" s="10">
@@ -2320,20 +2321,20 @@
       <c r="M81" s="2">
         <v>0</v>
       </c>
-      <c r="N81" s="20"/>
+      <c r="N81" s="19"/>
       <c r="O81" s="10">
         <v>0</v>
       </c>
       <c r="P81" s="2">
         <v>0</v>
       </c>
-      <c r="Q81" s="21">
+      <c r="Q81" s="20">
         <v>9276</v>
       </c>
       <c r="R81" s="10">
         <v>909.05</v>
       </c>
-      <c r="S81" s="22">
+      <c r="S81" s="21">
         <v>188.52</v>
       </c>
     </row>
@@ -2349,7 +2350,7 @@
         <v>20</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E82" s="2">
         <v>9276</v>
@@ -2360,7 +2361,7 @@
       <c r="G82" s="2">
         <v>742.08</v>
       </c>
-      <c r="H82" s="20">
+      <c r="H82" s="19">
         <v>9276</v>
       </c>
       <c r="I82" s="10">
@@ -2369,7 +2370,7 @@
       <c r="J82" s="2">
         <v>18.55</v>
       </c>
-      <c r="K82" s="20">
+      <c r="K82" s="19">
         <v>9276</v>
       </c>
       <c r="L82" s="10">
@@ -2378,20 +2379,20 @@
       <c r="M82" s="2">
         <v>0</v>
       </c>
-      <c r="N82" s="20"/>
+      <c r="N82" s="19"/>
       <c r="O82" s="10">
         <v>0</v>
       </c>
       <c r="P82" s="2">
         <v>0</v>
       </c>
-      <c r="Q82" s="21">
+      <c r="Q82" s="20">
         <v>9276</v>
       </c>
       <c r="R82" s="10">
         <v>909.05</v>
       </c>
-      <c r="S82" s="22">
+      <c r="S82" s="21">
         <v>188.52</v>
       </c>
     </row>
@@ -2407,7 +2408,7 @@
         <v>20</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E83" s="2">
         <v>9276</v>
@@ -2418,7 +2419,7 @@
       <c r="G83" s="2">
         <v>742.08</v>
       </c>
-      <c r="H83" s="20">
+      <c r="H83" s="19">
         <v>9276</v>
       </c>
       <c r="I83" s="10">
@@ -2427,7 +2428,7 @@
       <c r="J83" s="2">
         <v>18.55</v>
       </c>
-      <c r="K83" s="20">
+      <c r="K83" s="19">
         <v>9276</v>
       </c>
       <c r="L83" s="10">
@@ -2436,20 +2437,20 @@
       <c r="M83" s="2">
         <v>0</v>
       </c>
-      <c r="N83" s="20"/>
+      <c r="N83" s="19"/>
       <c r="O83" s="10">
         <v>0</v>
       </c>
       <c r="P83" s="2">
         <v>0</v>
       </c>
-      <c r="Q83" s="21">
+      <c r="Q83" s="20">
         <v>9276</v>
       </c>
       <c r="R83" s="10">
         <v>909.05</v>
       </c>
-      <c r="S83" s="22">
+      <c r="S83" s="21">
         <v>188.52</v>
       </c>
     </row>
@@ -2465,7 +2466,7 @@
         <v>20</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E84" s="2">
         <v>9276</v>
@@ -2476,7 +2477,7 @@
       <c r="G84" s="2">
         <v>742.08</v>
       </c>
-      <c r="H84" s="20">
+      <c r="H84" s="19">
         <v>9276</v>
       </c>
       <c r="I84" s="10">
@@ -2485,7 +2486,7 @@
       <c r="J84" s="2">
         <v>18.55</v>
       </c>
-      <c r="K84" s="20">
+      <c r="K84" s="19">
         <v>9276</v>
       </c>
       <c r="L84" s="10">
@@ -2494,20 +2495,20 @@
       <c r="M84" s="2">
         <v>0</v>
       </c>
-      <c r="N84" s="20"/>
+      <c r="N84" s="19"/>
       <c r="O84" s="10">
         <v>0</v>
       </c>
       <c r="P84" s="2">
         <v>0</v>
       </c>
-      <c r="Q84" s="21">
+      <c r="Q84" s="20">
         <v>9276</v>
       </c>
       <c r="R84" s="10">
         <v>909.05</v>
       </c>
-      <c r="S84" s="22">
+      <c r="S84" s="21">
         <v>188.52</v>
       </c>
     </row>
@@ -2523,7 +2524,7 @@
         <v>20</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E85" s="2">
         <v>9276</v>
@@ -2534,7 +2535,7 @@
       <c r="G85" s="2">
         <v>742.08</v>
       </c>
-      <c r="H85" s="20">
+      <c r="H85" s="19">
         <v>9276</v>
       </c>
       <c r="I85" s="10">
@@ -2543,7 +2544,7 @@
       <c r="J85" s="2">
         <v>18.55</v>
       </c>
-      <c r="K85" s="20">
+      <c r="K85" s="19">
         <v>9276</v>
       </c>
       <c r="L85" s="10">
@@ -2552,20 +2553,20 @@
       <c r="M85" s="2">
         <v>0</v>
       </c>
-      <c r="N85" s="20"/>
+      <c r="N85" s="19"/>
       <c r="O85" s="10">
         <v>0</v>
       </c>
       <c r="P85" s="2">
         <v>0</v>
       </c>
-      <c r="Q85" s="21">
+      <c r="Q85" s="20">
         <v>9276</v>
       </c>
       <c r="R85" s="10">
         <v>909.05</v>
       </c>
-      <c r="S85" s="22">
+      <c r="S85" s="21">
         <v>188.52</v>
       </c>
     </row>
@@ -2581,7 +2582,7 @@
         <v>20</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E86" s="2">
         <v>9276</v>
@@ -2592,7 +2593,7 @@
       <c r="G86" s="2">
         <v>742.08</v>
       </c>
-      <c r="H86" s="20">
+      <c r="H86" s="19">
         <v>9276</v>
       </c>
       <c r="I86" s="10">
@@ -2601,7 +2602,7 @@
       <c r="J86" s="2">
         <v>18.55</v>
       </c>
-      <c r="K86" s="20">
+      <c r="K86" s="19">
         <v>9276</v>
       </c>
       <c r="L86" s="10">
@@ -2610,20 +2611,20 @@
       <c r="M86" s="2">
         <v>0</v>
       </c>
-      <c r="N86" s="20"/>
+      <c r="N86" s="19"/>
       <c r="O86" s="10">
         <v>0</v>
       </c>
       <c r="P86" s="2">
         <v>0</v>
       </c>
-      <c r="Q86" s="21">
+      <c r="Q86" s="20">
         <v>9276</v>
       </c>
       <c r="R86" s="10">
         <v>909.05</v>
       </c>
-      <c r="S86" s="22">
+      <c r="S86" s="21">
         <v>188.52</v>
       </c>
     </row>
@@ -2639,7 +2640,7 @@
         <v>20</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E87" s="2">
         <v>9276</v>
@@ -2650,7 +2651,7 @@
       <c r="G87" s="2">
         <v>742.08</v>
       </c>
-      <c r="H87" s="20">
+      <c r="H87" s="19">
         <v>9276</v>
       </c>
       <c r="I87" s="10">
@@ -2659,7 +2660,7 @@
       <c r="J87" s="2">
         <v>18.55</v>
       </c>
-      <c r="K87" s="20">
+      <c r="K87" s="19">
         <v>9276</v>
       </c>
       <c r="L87" s="10">
@@ -2668,20 +2669,20 @@
       <c r="M87" s="2">
         <v>0</v>
       </c>
-      <c r="N87" s="20"/>
+      <c r="N87" s="19"/>
       <c r="O87" s="10">
         <v>0</v>
       </c>
       <c r="P87" s="2">
         <v>0</v>
       </c>
-      <c r="Q87" s="21">
+      <c r="Q87" s="20">
         <v>9276</v>
       </c>
       <c r="R87" s="10">
         <v>909.05</v>
       </c>
-      <c r="S87" s="22">
+      <c r="S87" s="21">
         <v>188.52</v>
       </c>
     </row>
@@ -2697,7 +2698,7 @@
         <v>20</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E88" s="2">
         <v>9276</v>
@@ -2708,7 +2709,7 @@
       <c r="G88" s="2">
         <v>742.08</v>
       </c>
-      <c r="H88" s="20">
+      <c r="H88" s="19">
         <v>9276</v>
       </c>
       <c r="I88" s="10">
@@ -2717,7 +2718,7 @@
       <c r="J88" s="2">
         <v>18.55</v>
       </c>
-      <c r="K88" s="20">
+      <c r="K88" s="19">
         <v>9276</v>
       </c>
       <c r="L88" s="10">
@@ -2726,20 +2727,20 @@
       <c r="M88" s="2">
         <v>0</v>
       </c>
-      <c r="N88" s="20"/>
+      <c r="N88" s="19"/>
       <c r="O88" s="10">
         <v>0</v>
       </c>
       <c r="P88" s="2">
         <v>0</v>
       </c>
-      <c r="Q88" s="21">
+      <c r="Q88" s="20">
         <v>9276</v>
       </c>
       <c r="R88" s="10">
         <v>909.05</v>
       </c>
-      <c r="S88" s="22">
+      <c r="S88" s="21">
         <v>188.52</v>
       </c>
     </row>
@@ -2755,7 +2756,7 @@
         <v>20</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E89" s="2">
         <v>9276</v>
@@ -2766,7 +2767,7 @@
       <c r="G89" s="2">
         <v>742.08</v>
       </c>
-      <c r="H89" s="20">
+      <c r="H89" s="19">
         <v>9276</v>
       </c>
       <c r="I89" s="10">
@@ -2775,7 +2776,7 @@
       <c r="J89" s="2">
         <v>18.55</v>
       </c>
-      <c r="K89" s="20">
+      <c r="K89" s="19">
         <v>9276</v>
       </c>
       <c r="L89" s="10">
@@ -2784,20 +2785,20 @@
       <c r="M89" s="2">
         <v>0</v>
       </c>
-      <c r="N89" s="20"/>
+      <c r="N89" s="19"/>
       <c r="O89" s="10">
         <v>0</v>
       </c>
       <c r="P89" s="2">
         <v>0</v>
       </c>
-      <c r="Q89" s="21">
+      <c r="Q89" s="20">
         <v>9276</v>
       </c>
       <c r="R89" s="10">
         <v>909.05</v>
       </c>
-      <c r="S89" s="22">
+      <c r="S89" s="21">
         <v>188.52</v>
       </c>
     </row>
@@ -2813,7 +2814,7 @@
         <v>20</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E90" s="2">
         <v>9276</v>
@@ -2824,7 +2825,7 @@
       <c r="G90" s="2">
         <v>742.08</v>
       </c>
-      <c r="H90" s="20">
+      <c r="H90" s="19">
         <v>9276</v>
       </c>
       <c r="I90" s="10">
@@ -2833,7 +2834,7 @@
       <c r="J90" s="2">
         <v>18.55</v>
       </c>
-      <c r="K90" s="20">
+      <c r="K90" s="19">
         <v>9276</v>
       </c>
       <c r="L90" s="10">
@@ -2842,29 +2843,29 @@
       <c r="M90" s="2">
         <v>0</v>
       </c>
-      <c r="N90" s="20"/>
+      <c r="N90" s="19"/>
       <c r="O90" s="10">
         <v>0</v>
       </c>
       <c r="P90" s="2">
         <v>0</v>
       </c>
-      <c r="Q90" s="21">
+      <c r="Q90" s="20">
         <v>9276</v>
       </c>
       <c r="R90" s="10">
         <v>909.05</v>
       </c>
-      <c r="S90" s="22">
+      <c r="S90" s="21">
         <v>188.52</v>
       </c>
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -2879,9 +2880,9 @@
         <v>20</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E94" s="20">
+        <v>53</v>
+      </c>
+      <c r="E94" s="19">
         <v>7574</v>
       </c>
       <c r="F94" s="10">
@@ -2890,7 +2891,7 @@
       <c r="G94" s="2">
         <v>605.91999999999996</v>
       </c>
-      <c r="H94" s="20">
+      <c r="H94" s="19">
         <v>7574</v>
       </c>
       <c r="I94" s="10">
@@ -2899,7 +2900,7 @@
       <c r="J94" s="2">
         <v>15.15</v>
       </c>
-      <c r="K94" s="20">
+      <c r="K94" s="19">
         <v>7574</v>
       </c>
       <c r="L94" s="10">
@@ -2908,20 +2909,20 @@
       <c r="M94" s="2">
         <v>0</v>
       </c>
-      <c r="N94" s="20"/>
+      <c r="N94" s="19"/>
       <c r="O94" s="10">
         <v>0</v>
       </c>
       <c r="P94" s="2">
         <v>0</v>
       </c>
-      <c r="Q94" s="20">
+      <c r="Q94" s="19">
         <v>7574</v>
       </c>
       <c r="R94" s="10">
         <v>819.99</v>
       </c>
-      <c r="S94" s="22">
+      <c r="S94" s="21">
         <v>154.47999999999999</v>
       </c>
     </row>
@@ -2937,9 +2938,9 @@
         <v>20</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E95" s="20">
+        <v>53</v>
+      </c>
+      <c r="E95" s="19">
         <v>7574</v>
       </c>
       <c r="F95" s="10">
@@ -2948,7 +2949,7 @@
       <c r="G95" s="2">
         <v>605.91999999999996</v>
       </c>
-      <c r="H95" s="20">
+      <c r="H95" s="19">
         <v>7574</v>
       </c>
       <c r="I95" s="10">
@@ -2957,7 +2958,7 @@
       <c r="J95" s="2">
         <v>15.15</v>
       </c>
-      <c r="K95" s="20">
+      <c r="K95" s="19">
         <v>7574</v>
       </c>
       <c r="L95" s="10">
@@ -2966,20 +2967,20 @@
       <c r="M95" s="2">
         <v>0</v>
       </c>
-      <c r="N95" s="20"/>
+      <c r="N95" s="19"/>
       <c r="O95" s="10">
         <v>0</v>
       </c>
       <c r="P95" s="2">
         <v>0</v>
       </c>
-      <c r="Q95" s="20">
+      <c r="Q95" s="19">
         <v>7574</v>
       </c>
       <c r="R95" s="10">
         <v>819.99</v>
       </c>
-      <c r="S95" s="22">
+      <c r="S95" s="21">
         <v>154.47999999999999</v>
       </c>
     </row>
@@ -2995,9 +2996,9 @@
         <v>20</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E96" s="20">
+        <v>53</v>
+      </c>
+      <c r="E96" s="19">
         <v>7574</v>
       </c>
       <c r="F96" s="10">
@@ -3006,7 +3007,7 @@
       <c r="G96" s="2">
         <v>605.91999999999996</v>
       </c>
-      <c r="H96" s="20">
+      <c r="H96" s="19">
         <v>7574</v>
       </c>
       <c r="I96" s="10">
@@ -3015,7 +3016,7 @@
       <c r="J96" s="2">
         <v>15.15</v>
       </c>
-      <c r="K96" s="20">
+      <c r="K96" s="19">
         <v>7574</v>
       </c>
       <c r="L96" s="10">
@@ -3024,20 +3025,20 @@
       <c r="M96" s="2">
         <v>0</v>
       </c>
-      <c r="N96" s="20"/>
+      <c r="N96" s="19"/>
       <c r="O96" s="10">
         <v>0</v>
       </c>
       <c r="P96" s="2">
         <v>0</v>
       </c>
-      <c r="Q96" s="20">
+      <c r="Q96" s="19">
         <v>7574</v>
       </c>
       <c r="R96" s="10">
         <v>819.99</v>
       </c>
-      <c r="S96" s="22">
+      <c r="S96" s="21">
         <v>154.47999999999999</v>
       </c>
     </row>
@@ -3053,9 +3054,9 @@
         <v>20</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E97" s="20">
+        <v>53</v>
+      </c>
+      <c r="E97" s="19">
         <v>7574</v>
       </c>
       <c r="F97" s="10">
@@ -3064,7 +3065,7 @@
       <c r="G97" s="2">
         <v>605.91999999999996</v>
       </c>
-      <c r="H97" s="20">
+      <c r="H97" s="19">
         <v>7574</v>
       </c>
       <c r="I97" s="10">
@@ -3073,7 +3074,7 @@
       <c r="J97" s="2">
         <v>15.15</v>
       </c>
-      <c r="K97" s="20">
+      <c r="K97" s="19">
         <v>7574</v>
       </c>
       <c r="L97" s="10">
@@ -3082,20 +3083,20 @@
       <c r="M97" s="2">
         <v>0</v>
       </c>
-      <c r="N97" s="20"/>
+      <c r="N97" s="19"/>
       <c r="O97" s="10">
         <v>0</v>
       </c>
       <c r="P97" s="2">
         <v>0</v>
       </c>
-      <c r="Q97" s="20">
+      <c r="Q97" s="19">
         <v>7574</v>
       </c>
       <c r="R97" s="10">
         <v>819.99</v>
       </c>
-      <c r="S97" s="22">
+      <c r="S97" s="21">
         <v>154.47999999999999</v>
       </c>
     </row>
@@ -3111,9 +3112,9 @@
         <v>20</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E98" s="20">
+        <v>53</v>
+      </c>
+      <c r="E98" s="19">
         <v>7574</v>
       </c>
       <c r="F98" s="10">
@@ -3122,7 +3123,7 @@
       <c r="G98" s="2">
         <v>605.91999999999996</v>
       </c>
-      <c r="H98" s="20">
+      <c r="H98" s="19">
         <v>7574</v>
       </c>
       <c r="I98" s="10">
@@ -3131,7 +3132,7 @@
       <c r="J98" s="2">
         <v>15.15</v>
       </c>
-      <c r="K98" s="20">
+      <c r="K98" s="19">
         <v>7574</v>
       </c>
       <c r="L98" s="10">
@@ -3140,20 +3141,20 @@
       <c r="M98" s="2">
         <v>0</v>
       </c>
-      <c r="N98" s="20"/>
+      <c r="N98" s="19"/>
       <c r="O98" s="10">
         <v>0</v>
       </c>
       <c r="P98" s="2">
         <v>0</v>
       </c>
-      <c r="Q98" s="20">
+      <c r="Q98" s="19">
         <v>7574</v>
       </c>
       <c r="R98" s="10">
         <v>819.99</v>
       </c>
-      <c r="S98" s="22">
+      <c r="S98" s="21">
         <v>154.47999999999999</v>
       </c>
     </row>
@@ -3169,9 +3170,9 @@
         <v>20</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E99" s="20">
+        <v>53</v>
+      </c>
+      <c r="E99" s="19">
         <v>7574</v>
       </c>
       <c r="F99" s="10">
@@ -3180,7 +3181,7 @@
       <c r="G99" s="2">
         <v>605.91999999999996</v>
       </c>
-      <c r="H99" s="20">
+      <c r="H99" s="19">
         <v>7574</v>
       </c>
       <c r="I99" s="10">
@@ -3189,7 +3190,7 @@
       <c r="J99" s="2">
         <v>15.15</v>
       </c>
-      <c r="K99" s="20">
+      <c r="K99" s="19">
         <v>7574</v>
       </c>
       <c r="L99" s="10">
@@ -3198,20 +3199,20 @@
       <c r="M99" s="2">
         <v>0</v>
       </c>
-      <c r="N99" s="20"/>
+      <c r="N99" s="19"/>
       <c r="O99" s="10">
         <v>0</v>
       </c>
       <c r="P99" s="2">
         <v>0</v>
       </c>
-      <c r="Q99" s="20">
+      <c r="Q99" s="19">
         <v>7574</v>
       </c>
       <c r="R99" s="10">
         <v>819.99</v>
       </c>
-      <c r="S99" s="22">
+      <c r="S99" s="21">
         <v>154.47999999999999</v>
       </c>
     </row>
@@ -3227,9 +3228,9 @@
         <v>20</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E100" s="20">
+        <v>53</v>
+      </c>
+      <c r="E100" s="19">
         <v>7574</v>
       </c>
       <c r="F100" s="10">
@@ -3238,7 +3239,7 @@
       <c r="G100" s="2">
         <v>605.91999999999996</v>
       </c>
-      <c r="H100" s="20">
+      <c r="H100" s="19">
         <v>7574</v>
       </c>
       <c r="I100" s="10">
@@ -3247,7 +3248,7 @@
       <c r="J100" s="2">
         <v>15.15</v>
       </c>
-      <c r="K100" s="20">
+      <c r="K100" s="19">
         <v>7574</v>
       </c>
       <c r="L100" s="10">
@@ -3256,20 +3257,20 @@
       <c r="M100" s="2">
         <v>0</v>
       </c>
-      <c r="N100" s="20"/>
+      <c r="N100" s="19"/>
       <c r="O100" s="10">
         <v>0</v>
       </c>
       <c r="P100" s="2">
         <v>0</v>
       </c>
-      <c r="Q100" s="20">
+      <c r="Q100" s="19">
         <v>7574</v>
       </c>
       <c r="R100" s="10">
         <v>819.99</v>
       </c>
-      <c r="S100" s="22">
+      <c r="S100" s="21">
         <v>154.47999999999999</v>
       </c>
     </row>
@@ -3285,9 +3286,9 @@
         <v>20</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E101" s="20">
+        <v>53</v>
+      </c>
+      <c r="E101" s="19">
         <v>7574</v>
       </c>
       <c r="F101" s="10">
@@ -3296,7 +3297,7 @@
       <c r="G101" s="2">
         <v>605.91999999999996</v>
       </c>
-      <c r="H101" s="20">
+      <c r="H101" s="19">
         <v>7574</v>
       </c>
       <c r="I101" s="10">
@@ -3305,7 +3306,7 @@
       <c r="J101" s="2">
         <v>15.15</v>
       </c>
-      <c r="K101" s="20">
+      <c r="K101" s="19">
         <v>7574</v>
       </c>
       <c r="L101" s="10">
@@ -3314,20 +3315,20 @@
       <c r="M101" s="2">
         <v>0</v>
       </c>
-      <c r="N101" s="20"/>
+      <c r="N101" s="19"/>
       <c r="O101" s="10">
         <v>0</v>
       </c>
       <c r="P101" s="2">
         <v>0</v>
       </c>
-      <c r="Q101" s="20">
+      <c r="Q101" s="19">
         <v>7574</v>
       </c>
       <c r="R101" s="10">
         <v>819.99</v>
       </c>
-      <c r="S101" s="22">
+      <c r="S101" s="21">
         <v>154.47999999999999</v>
       </c>
     </row>
@@ -3343,9 +3344,9 @@
         <v>20</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E102" s="20">
+        <v>53</v>
+      </c>
+      <c r="E102" s="19">
         <v>7574</v>
       </c>
       <c r="F102" s="10">
@@ -3354,7 +3355,7 @@
       <c r="G102" s="2">
         <v>605.91999999999996</v>
       </c>
-      <c r="H102" s="20">
+      <c r="H102" s="19">
         <v>7574</v>
       </c>
       <c r="I102" s="10">
@@ -3363,7 +3364,7 @@
       <c r="J102" s="2">
         <v>15.15</v>
       </c>
-      <c r="K102" s="20">
+      <c r="K102" s="19">
         <v>7574</v>
       </c>
       <c r="L102" s="10">
@@ -3372,20 +3373,20 @@
       <c r="M102" s="2">
         <v>0</v>
       </c>
-      <c r="N102" s="20"/>
+      <c r="N102" s="19"/>
       <c r="O102" s="10">
         <v>0</v>
       </c>
       <c r="P102" s="2">
         <v>0</v>
       </c>
-      <c r="Q102" s="20">
+      <c r="Q102" s="19">
         <v>7574</v>
       </c>
       <c r="R102" s="10">
         <v>819.99</v>
       </c>
-      <c r="S102" s="22">
+      <c r="S102" s="21">
         <v>154.47999999999999</v>
       </c>
     </row>
@@ -3401,9 +3402,9 @@
         <v>20</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E103" s="20">
+        <v>53</v>
+      </c>
+      <c r="E103" s="19">
         <v>7574</v>
       </c>
       <c r="F103" s="10">
@@ -3412,7 +3413,7 @@
       <c r="G103" s="2">
         <v>605.91999999999996</v>
       </c>
-      <c r="H103" s="20">
+      <c r="H103" s="19">
         <v>7574</v>
       </c>
       <c r="I103" s="10">
@@ -3421,7 +3422,7 @@
       <c r="J103" s="2">
         <v>15.15</v>
       </c>
-      <c r="K103" s="20">
+      <c r="K103" s="19">
         <v>7574</v>
       </c>
       <c r="L103" s="10">
@@ -3430,20 +3431,20 @@
       <c r="M103" s="2">
         <v>0</v>
       </c>
-      <c r="N103" s="20"/>
+      <c r="N103" s="19"/>
       <c r="O103" s="10">
         <v>0</v>
       </c>
       <c r="P103" s="2">
         <v>0</v>
       </c>
-      <c r="Q103" s="20">
+      <c r="Q103" s="19">
         <v>7574</v>
       </c>
       <c r="R103" s="10">
         <v>819.99</v>
       </c>
-      <c r="S103" s="22">
+      <c r="S103" s="21">
         <v>154.47999999999999</v>
       </c>
     </row>
@@ -3459,9 +3460,9 @@
         <v>20</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E104" s="20">
+        <v>53</v>
+      </c>
+      <c r="E104" s="19">
         <v>7574</v>
       </c>
       <c r="F104" s="10">
@@ -3470,7 +3471,7 @@
       <c r="G104" s="2">
         <v>605.91999999999996</v>
       </c>
-      <c r="H104" s="20">
+      <c r="H104" s="19">
         <v>7574</v>
       </c>
       <c r="I104" s="10">
@@ -3479,7 +3480,7 @@
       <c r="J104" s="2">
         <v>15.15</v>
       </c>
-      <c r="K104" s="20">
+      <c r="K104" s="19">
         <v>7574</v>
       </c>
       <c r="L104" s="10">
@@ -3488,20 +3489,20 @@
       <c r="M104" s="2">
         <v>0</v>
       </c>
-      <c r="N104" s="20"/>
+      <c r="N104" s="19"/>
       <c r="O104" s="10">
         <v>0</v>
       </c>
       <c r="P104" s="2">
         <v>0</v>
       </c>
-      <c r="Q104" s="20">
+      <c r="Q104" s="19">
         <v>7574</v>
       </c>
       <c r="R104" s="10">
         <v>819.99</v>
       </c>
-      <c r="S104" s="22">
+      <c r="S104" s="21">
         <v>154.47999999999999</v>
       </c>
     </row>
@@ -3517,9 +3518,9 @@
         <v>20</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E105" s="20">
+        <v>53</v>
+      </c>
+      <c r="E105" s="19">
         <v>7574</v>
       </c>
       <c r="F105" s="10">
@@ -3528,7 +3529,7 @@
       <c r="G105" s="2">
         <v>605.91999999999996</v>
       </c>
-      <c r="H105" s="20">
+      <c r="H105" s="19">
         <v>7574</v>
       </c>
       <c r="I105" s="10">
@@ -3537,7 +3538,7 @@
       <c r="J105" s="2">
         <v>15.15</v>
       </c>
-      <c r="K105" s="20">
+      <c r="K105" s="19">
         <v>7574</v>
       </c>
       <c r="L105" s="10">
@@ -3546,20 +3547,20 @@
       <c r="M105" s="2">
         <v>0</v>
       </c>
-      <c r="N105" s="20"/>
+      <c r="N105" s="19"/>
       <c r="O105" s="10">
         <v>0</v>
       </c>
       <c r="P105" s="2">
         <v>0</v>
       </c>
-      <c r="Q105" s="20">
+      <c r="Q105" s="19">
         <v>7574</v>
       </c>
       <c r="R105" s="10">
         <v>819.99</v>
       </c>
-      <c r="S105" s="22">
+      <c r="S105" s="21">
         <v>154.47999999999999</v>
       </c>
     </row>
